--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H2">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J2">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.138376928023438</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N2">
-        <v>0.138376928023438</v>
+        <v>0.449284</v>
       </c>
       <c r="O2">
-        <v>0.002065833946948676</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="P2">
-        <v>0.002065833946948676</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="Q2">
-        <v>0.9448317006307599</v>
+        <v>1.056269928828889</v>
       </c>
       <c r="R2">
-        <v>0.9448317006307599</v>
+        <v>9.50642935946</v>
       </c>
       <c r="S2">
-        <v>0.0001784452816235987</v>
+        <v>0.0001634825569410627</v>
       </c>
       <c r="T2">
-        <v>0.0001784452816235987</v>
+        <v>0.0001634825569410627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H3">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I3">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J3">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.651792706879603</v>
+        <v>2.225204666666667</v>
       </c>
       <c r="N3">
-        <v>0.651792706879603</v>
+        <v>6.675614</v>
       </c>
       <c r="O3">
-        <v>0.009730635876071658</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="P3">
-        <v>0.009730635876071658</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="Q3">
-        <v>4.45041251093154</v>
+        <v>15.69441672676778</v>
       </c>
       <c r="R3">
-        <v>4.45041251093154</v>
+        <v>141.24975054091</v>
       </c>
       <c r="S3">
-        <v>0.0008405254748800193</v>
+        <v>0.002429079259158028</v>
       </c>
       <c r="T3">
-        <v>0.0008405254748800193</v>
+        <v>0.002429079259158027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H4">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I4">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J4">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.12378372832131</v>
+        <v>1.364763</v>
       </c>
       <c r="N4">
-        <v>1.12378372832131</v>
+        <v>4.094289</v>
       </c>
       <c r="O4">
-        <v>0.01677700616826448</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="P4">
-        <v>0.01677700616826448</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="Q4">
-        <v>7.673146862973832</v>
+        <v>9.625703008864999</v>
       </c>
       <c r="R4">
-        <v>7.673146862973832</v>
+        <v>86.631327079785</v>
       </c>
       <c r="S4">
-        <v>0.00144918597882407</v>
+        <v>0.001489803408480308</v>
       </c>
       <c r="T4">
-        <v>0.00144918597882407</v>
+        <v>0.001489803408480307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.82795690095625</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H5">
-        <v>6.82795690095625</v>
+        <v>21.159065</v>
       </c>
       <c r="I5">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J5">
-        <v>0.08637929582247884</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.0696143275993</v>
+        <v>68.90343433333334</v>
       </c>
       <c r="N5">
-        <v>65.0696143275993</v>
+        <v>206.710303</v>
       </c>
       <c r="O5">
-        <v>0.9714265240087152</v>
+        <v>0.938900930930877</v>
       </c>
       <c r="P5">
-        <v>0.9714265240087152</v>
+        <v>0.9389009309308769</v>
       </c>
       <c r="Q5">
-        <v>444.2925221906933</v>
+        <v>485.9774152607439</v>
       </c>
       <c r="R5">
-        <v>444.2925221906933</v>
+        <v>4373.796737346694</v>
       </c>
       <c r="S5">
-        <v>0.08391113908715116</v>
+        <v>0.07521640850887597</v>
       </c>
       <c r="T5">
-        <v>0.08391113908715116</v>
+        <v>0.07521640850887594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.0506669061999</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H6">
-        <v>31.0506669061999</v>
+        <v>21.159065</v>
       </c>
       <c r="I6">
-        <v>0.3928165893666177</v>
+        <v>0.08011112358180576</v>
       </c>
       <c r="J6">
-        <v>0.3928165893666177</v>
+        <v>0.08011112358180575</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.138376928023438</v>
+        <v>0.7441686666666666</v>
       </c>
       <c r="N6">
-        <v>0.138376928023438</v>
+        <v>2.232506</v>
       </c>
       <c r="O6">
-        <v>0.002065833946948676</v>
+        <v>0.01014028779063213</v>
       </c>
       <c r="P6">
-        <v>0.002065833946948676</v>
+        <v>0.01014028779063213</v>
       </c>
       <c r="Q6">
-        <v>4.296695899558972</v>
+        <v>5.248637729654443</v>
       </c>
       <c r="R6">
-        <v>4.296695899558972</v>
+        <v>47.23773956688999</v>
       </c>
       <c r="S6">
-        <v>0.0008114938452381571</v>
+        <v>0.0008123498483504066</v>
       </c>
       <c r="T6">
-        <v>0.0008114938452381571</v>
+        <v>0.0008123498483504065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.0506669061999</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H7">
-        <v>31.0506669061999</v>
+        <v>106.892308</v>
       </c>
       <c r="I7">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J7">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.651792706879603</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N7">
-        <v>0.651792706879603</v>
+        <v>0.449284</v>
       </c>
       <c r="O7">
-        <v>0.009730635876071658</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="P7">
-        <v>0.009730635876071658</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="Q7">
-        <v>20.23859823320894</v>
+        <v>5.336111523052445</v>
       </c>
       <c r="R7">
-        <v>20.23859823320894</v>
+        <v>48.025003707472</v>
       </c>
       <c r="S7">
-        <v>0.003822355197206919</v>
+        <v>0.0008258884704580099</v>
       </c>
       <c r="T7">
-        <v>0.003822355197206919</v>
+        <v>0.0008258884704580098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.0506669061999</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H8">
-        <v>31.0506669061999</v>
+        <v>106.892308</v>
       </c>
       <c r="I8">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J8">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.12378372832131</v>
+        <v>2.225204666666667</v>
       </c>
       <c r="N8">
-        <v>1.12378372832131</v>
+        <v>6.675614</v>
       </c>
       <c r="O8">
-        <v>0.01677700616826448</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="P8">
-        <v>0.01677700616826448</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="Q8">
-        <v>34.89423422271243</v>
+        <v>79.2857541974569</v>
       </c>
       <c r="R8">
-        <v>34.89423422271243</v>
+        <v>713.571787777112</v>
       </c>
       <c r="S8">
-        <v>0.006590286342800362</v>
+        <v>0.01227133090835213</v>
       </c>
       <c r="T8">
-        <v>0.006590286342800362</v>
+        <v>0.01227133090835213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.0506669061999</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H9">
-        <v>31.0506669061999</v>
+        <v>106.892308</v>
       </c>
       <c r="I9">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J9">
-        <v>0.3928165893666177</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.0696143275993</v>
+        <v>1.364763</v>
       </c>
       <c r="N9">
-        <v>65.0696143275993</v>
+        <v>4.094289</v>
       </c>
       <c r="O9">
-        <v>0.9714265240087152</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="P9">
-        <v>0.9714265240087152</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="Q9">
-        <v>2020.454920201178</v>
+        <v>48.627555647668</v>
       </c>
       <c r="R9">
-        <v>2020.454920201178</v>
+        <v>437.648000829012</v>
       </c>
       <c r="S9">
-        <v>0.3815924539813723</v>
+        <v>0.007526255285794854</v>
       </c>
       <c r="T9">
-        <v>0.3815924539813723</v>
+        <v>0.007526255285794852</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.9144913797347</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H10">
-        <v>31.9144913797347</v>
+        <v>106.892308</v>
       </c>
       <c r="I10">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J10">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.138376928023438</v>
+        <v>68.90343433333334</v>
       </c>
       <c r="N10">
-        <v>0.138376928023438</v>
+        <v>206.710303</v>
       </c>
       <c r="O10">
-        <v>0.002065833946948676</v>
+        <v>0.938900930930877</v>
       </c>
       <c r="P10">
-        <v>0.002065833946948676</v>
+        <v>0.9389009309308769</v>
       </c>
       <c r="Q10">
-        <v>4.416229276558181</v>
+        <v>2455.082375005481</v>
       </c>
       <c r="R10">
-        <v>4.416229276558181</v>
+        <v>22095.74137504933</v>
       </c>
       <c r="S10">
-        <v>0.0008340694712547311</v>
+        <v>0.3799816062280914</v>
       </c>
       <c r="T10">
-        <v>0.0008340694712547311</v>
+        <v>0.3799816062280913</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.9144913797347</v>
+        <v>35.63076933333333</v>
       </c>
       <c r="H11">
-        <v>31.9144913797347</v>
+        <v>106.892308</v>
       </c>
       <c r="I11">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="J11">
-        <v>0.4037446826191849</v>
+        <v>0.4047089460773642</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.651792706879603</v>
+        <v>0.7441686666666666</v>
       </c>
       <c r="N11">
-        <v>0.651792706879603</v>
+        <v>2.232506</v>
       </c>
       <c r="O11">
-        <v>0.009730635876071658</v>
+        <v>0.01014028779063213</v>
       </c>
       <c r="P11">
-        <v>0.009730635876071658</v>
+        <v>0.01014028779063213</v>
       </c>
       <c r="Q11">
-        <v>20.80163272508304</v>
+        <v>26.51530210709422</v>
       </c>
       <c r="R11">
-        <v>20.80163272508304</v>
+        <v>238.637718963848</v>
       </c>
       <c r="S11">
-        <v>0.003928692493467405</v>
+        <v>0.004103865184667893</v>
       </c>
       <c r="T11">
-        <v>0.003928692493467405</v>
+        <v>0.004103865184667893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.9144913797347</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H12">
-        <v>31.9144913797347</v>
+        <v>100.941422</v>
       </c>
       <c r="I12">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J12">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.12378372832131</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N12">
-        <v>1.12378372832131</v>
+        <v>0.449284</v>
       </c>
       <c r="O12">
-        <v>0.01677700616826448</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="P12">
-        <v>0.01677700616826448</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="Q12">
-        <v>35.86498611019657</v>
+        <v>5.039040649094222</v>
       </c>
       <c r="R12">
-        <v>35.86498611019657</v>
+        <v>45.35136584184799</v>
       </c>
       <c r="S12">
-        <v>0.00677362703070605</v>
+        <v>0.0007799097819221614</v>
       </c>
       <c r="T12">
-        <v>0.00677362703070605</v>
+        <v>0.0007799097819221612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.9144913797347</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H13">
-        <v>31.9144913797347</v>
+        <v>100.941422</v>
       </c>
       <c r="I13">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J13">
-        <v>0.4037446826191849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.0696143275993</v>
+        <v>2.225204666666667</v>
       </c>
       <c r="N13">
-        <v>65.0696143275993</v>
+        <v>6.675614</v>
       </c>
       <c r="O13">
-        <v>0.9714265240087152</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="P13">
-        <v>0.9714265240087152</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="Q13">
-        <v>2076.663645540829</v>
+        <v>74.87177443145644</v>
       </c>
       <c r="R13">
-        <v>2076.663645540829</v>
+        <v>673.845969883108</v>
       </c>
       <c r="S13">
-        <v>0.3922082936237567</v>
+        <v>0.01158816396519023</v>
       </c>
       <c r="T13">
-        <v>0.3922082936237567</v>
+        <v>0.01158816396519023</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.54711793451305</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H14">
-        <v>7.54711793451305</v>
+        <v>100.941422</v>
       </c>
       <c r="I14">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J14">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.138376928023438</v>
+        <v>1.364763</v>
       </c>
       <c r="N14">
-        <v>0.138376928023438</v>
+        <v>4.094289</v>
       </c>
       <c r="O14">
-        <v>0.002065833946948676</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="P14">
-        <v>0.002065833946948676</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="Q14">
-        <v>1.04434699520851</v>
+        <v>45.920372637662</v>
       </c>
       <c r="R14">
-        <v>1.04434699520851</v>
+        <v>413.2833537389579</v>
       </c>
       <c r="S14">
-        <v>0.0001972402000783108</v>
+        <v>0.007107255190739721</v>
       </c>
       <c r="T14">
-        <v>0.0001972402000783108</v>
+        <v>0.007107255190739717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.54711793451305</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H15">
-        <v>7.54711793451305</v>
+        <v>100.941422</v>
       </c>
       <c r="I15">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J15">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.651792706879603</v>
+        <v>68.90343433333334</v>
       </c>
       <c r="N15">
-        <v>0.651792706879603</v>
+        <v>206.710303</v>
       </c>
       <c r="O15">
-        <v>0.009730635876071658</v>
+        <v>0.938900930930877</v>
       </c>
       <c r="P15">
-        <v>0.009730635876071658</v>
+        <v>0.9389009309308769</v>
       </c>
       <c r="Q15">
-        <v>4.919156427675859</v>
+        <v>2318.403547430096</v>
       </c>
       <c r="R15">
-        <v>4.919156427675859</v>
+        <v>20865.63192687086</v>
       </c>
       <c r="S15">
-        <v>0.0009290546173473477</v>
+        <v>0.3588273504816418</v>
       </c>
       <c r="T15">
-        <v>0.0009290546173473477</v>
+        <v>0.3588273504816417</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.54711793451305</v>
+        <v>33.64714066666667</v>
       </c>
       <c r="H16">
-        <v>7.54711793451305</v>
+        <v>100.941422</v>
       </c>
       <c r="I16">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881576</v>
       </c>
       <c r="J16">
-        <v>0.09547727704331849</v>
+        <v>0.3821780750881575</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.12378372832131</v>
+        <v>0.7441686666666666</v>
       </c>
       <c r="N16">
-        <v>1.12378372832131</v>
+        <v>2.232506</v>
       </c>
       <c r="O16">
-        <v>0.01677700616826448</v>
+        <v>0.01014028779063213</v>
       </c>
       <c r="P16">
-        <v>0.01677700616826448</v>
+        <v>0.01014028779063213</v>
       </c>
       <c r="Q16">
-        <v>8.481328330527699</v>
+        <v>25.03914780705911</v>
       </c>
       <c r="R16">
-        <v>8.481328330527699</v>
+        <v>225.352330263532</v>
       </c>
       <c r="S16">
-        <v>0.001601822865884851</v>
+        <v>0.003875395668663734</v>
       </c>
       <c r="T16">
-        <v>0.001601822865884851</v>
+        <v>0.003875395668663732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.54711793451305</v>
+        <v>8.048222000000001</v>
       </c>
       <c r="H17">
-        <v>7.54711793451305</v>
+        <v>24.144666</v>
       </c>
       <c r="I17">
-        <v>0.09547727704331849</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="J17">
-        <v>0.09547727704331849</v>
+        <v>0.09141501865831139</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.0696143275993</v>
+        <v>0.1497613333333333</v>
       </c>
       <c r="N17">
-        <v>65.0696143275993</v>
+        <v>0.449284</v>
       </c>
       <c r="O17">
-        <v>0.9714265240087152</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="P17">
-        <v>0.9714265240087152</v>
+        <v>0.002040697341788271</v>
       </c>
       <c r="Q17">
-        <v>491.088053283672</v>
+        <v>1.205312457682667</v>
       </c>
       <c r="R17">
-        <v>491.088053283672</v>
+        <v>10.847812119144</v>
       </c>
       <c r="S17">
-        <v>0.09274915936000798</v>
+        <v>0.0001865503855755413</v>
       </c>
       <c r="T17">
-        <v>0.09274915936000798</v>
+        <v>0.0001865503855755413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.70598780390472</v>
+        <v>8.048222000000001</v>
       </c>
       <c r="H18">
-        <v>1.70598780390472</v>
+        <v>24.144666</v>
       </c>
       <c r="I18">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="J18">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831139</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.138376928023438</v>
+        <v>2.225204666666667</v>
       </c>
       <c r="N18">
-        <v>0.138376928023438</v>
+        <v>6.675614</v>
       </c>
       <c r="O18">
-        <v>0.002065833946948676</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="P18">
-        <v>0.002065833946948676</v>
+        <v>0.03032137299481969</v>
       </c>
       <c r="Q18">
-        <v>0.2360693515497865</v>
+        <v>17.90894115276934</v>
       </c>
       <c r="R18">
-        <v>0.2360693515497865</v>
+        <v>161.180470374924</v>
       </c>
       <c r="S18">
-        <v>4.458514875387803E-05</v>
+        <v>0.002771828878067062</v>
       </c>
       <c r="T18">
-        <v>4.458514875387803E-05</v>
+        <v>0.002771828878067061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.70598780390472</v>
+        <v>8.048222000000001</v>
       </c>
       <c r="H19">
-        <v>1.70598780390472</v>
+        <v>24.144666</v>
       </c>
       <c r="I19">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="J19">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831139</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.651792706879603</v>
+        <v>1.364763</v>
       </c>
       <c r="N19">
-        <v>0.651792706879603</v>
+        <v>4.094289</v>
       </c>
       <c r="O19">
-        <v>0.009730635876071658</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="P19">
-        <v>0.009730635876071658</v>
+        <v>0.01859671094188299</v>
       </c>
       <c r="Q19">
-        <v>1.111950408610647</v>
+        <v>10.983915601386</v>
       </c>
       <c r="R19">
-        <v>1.111950408610647</v>
+        <v>98.855240412474</v>
       </c>
       <c r="S19">
-        <v>0.0002100080931699665</v>
+        <v>0.001700018677735458</v>
       </c>
       <c r="T19">
-        <v>0.0002100080931699665</v>
+        <v>0.001700018677735457</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.70598780390472</v>
+        <v>8.048222000000001</v>
       </c>
       <c r="H20">
-        <v>1.70598780390472</v>
+        <v>24.144666</v>
       </c>
       <c r="I20">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831142</v>
       </c>
       <c r="J20">
-        <v>0.02158215514840009</v>
+        <v>0.09141501865831139</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.12378372832131</v>
+        <v>68.90343433333334</v>
       </c>
       <c r="N20">
-        <v>1.12378372832131</v>
+        <v>206.710303</v>
       </c>
       <c r="O20">
-        <v>0.01677700616826448</v>
+        <v>0.938900930930877</v>
       </c>
       <c r="P20">
-        <v>0.01677700616826448</v>
+        <v>0.9389009309308769</v>
       </c>
       <c r="Q20">
-        <v>1.91716133474273</v>
+        <v>554.5501360770887</v>
       </c>
       <c r="R20">
-        <v>1.91716133474273</v>
+        <v>4990.951224693798</v>
       </c>
       <c r="S20">
-        <v>0.0003620839500491493</v>
+        <v>0.08582964611935208</v>
       </c>
       <c r="T20">
-        <v>0.0003620839500491493</v>
+        <v>0.08582964611935205</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.048222000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.144666</v>
+      </c>
+      <c r="I21">
+        <v>0.09141501865831142</v>
+      </c>
+      <c r="J21">
+        <v>0.09141501865831139</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.7441686666666666</v>
+      </c>
+      <c r="N21">
+        <v>2.232506</v>
+      </c>
+      <c r="O21">
+        <v>0.01014028779063213</v>
+      </c>
+      <c r="P21">
+        <v>0.01014028779063213</v>
+      </c>
+      <c r="Q21">
+        <v>5.989234634777334</v>
+      </c>
+      <c r="R21">
+        <v>53.903111712996</v>
+      </c>
+      <c r="S21">
+        <v>0.0009269745975812835</v>
+      </c>
+      <c r="T21">
+        <v>0.0009269745975812833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.661325</v>
+      </c>
+      <c r="H22">
+        <v>10.983975</v>
+      </c>
+      <c r="I22">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J22">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1497613333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.449284</v>
+      </c>
+      <c r="O22">
+        <v>0.002040697341788271</v>
+      </c>
+      <c r="P22">
+        <v>0.002040697341788271</v>
+      </c>
+      <c r="Q22">
+        <v>0.5483249137666666</v>
+      </c>
+      <c r="R22">
+        <v>4.9349242239</v>
+      </c>
+      <c r="S22">
+        <v>8.486614689149587E-05</v>
+      </c>
+      <c r="T22">
+        <v>8.486614689149586E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.661325</v>
+      </c>
+      <c r="H23">
+        <v>10.983975</v>
+      </c>
+      <c r="I23">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J23">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.225204666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.675614</v>
+      </c>
+      <c r="O23">
+        <v>0.03032137299481969</v>
+      </c>
+      <c r="P23">
+        <v>0.03032137299481969</v>
+      </c>
+      <c r="Q23">
+        <v>8.147197476183333</v>
+      </c>
+      <c r="R23">
+        <v>73.32477728565</v>
+      </c>
+      <c r="S23">
+        <v>0.00126096998405224</v>
+      </c>
+      <c r="T23">
+        <v>0.001260969984052239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.661325</v>
+      </c>
+      <c r="H24">
+        <v>10.983975</v>
+      </c>
+      <c r="I24">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J24">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.364763</v>
+      </c>
+      <c r="N24">
+        <v>4.094289</v>
+      </c>
+      <c r="O24">
+        <v>0.01859671094188299</v>
+      </c>
+      <c r="P24">
+        <v>0.01859671094188299</v>
+      </c>
+      <c r="Q24">
+        <v>4.996840890974999</v>
+      </c>
+      <c r="R24">
+        <v>44.971568018775</v>
+      </c>
+      <c r="S24">
+        <v>0.000773378379132655</v>
+      </c>
+      <c r="T24">
+        <v>0.0007733783791326548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.70598780390472</v>
-      </c>
-      <c r="H21">
-        <v>1.70598780390472</v>
-      </c>
-      <c r="I21">
-        <v>0.02158215514840009</v>
-      </c>
-      <c r="J21">
-        <v>0.02158215514840009</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>65.0696143275993</v>
-      </c>
-      <c r="N21">
-        <v>65.0696143275993</v>
-      </c>
-      <c r="O21">
-        <v>0.9714265240087152</v>
-      </c>
-      <c r="P21">
-        <v>0.9714265240087152</v>
-      </c>
-      <c r="Q21">
-        <v>111.0079684476682</v>
-      </c>
-      <c r="R21">
-        <v>111.0079684476682</v>
-      </c>
-      <c r="S21">
-        <v>0.02096547795642709</v>
-      </c>
-      <c r="T21">
-        <v>0.02096547795642709</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.661325</v>
+      </c>
+      <c r="H25">
+        <v>10.983975</v>
+      </c>
+      <c r="I25">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J25">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>68.90343433333334</v>
+      </c>
+      <c r="N25">
+        <v>206.710303</v>
+      </c>
+      <c r="O25">
+        <v>0.938900930930877</v>
+      </c>
+      <c r="P25">
+        <v>0.9389009309308769</v>
+      </c>
+      <c r="Q25">
+        <v>252.2778667104917</v>
+      </c>
+      <c r="R25">
+        <v>2270.500800394425</v>
+      </c>
+      <c r="S25">
+        <v>0.03904591959291589</v>
+      </c>
+      <c r="T25">
+        <v>0.03904591959291588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.661325</v>
+      </c>
+      <c r="H26">
+        <v>10.983975</v>
+      </c>
+      <c r="I26">
+        <v>0.04158683659436109</v>
+      </c>
+      <c r="J26">
+        <v>0.04158683659436108</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.7441686666666666</v>
+      </c>
+      <c r="N26">
+        <v>2.232506</v>
+      </c>
+      <c r="O26">
+        <v>0.01014028779063213</v>
+      </c>
+      <c r="P26">
+        <v>0.01014028779063213</v>
+      </c>
+      <c r="Q26">
+        <v>2.724643343483333</v>
+      </c>
+      <c r="R26">
+        <v>24.52179009135</v>
+      </c>
+      <c r="S26">
+        <v>0.0004217024913688132</v>
+      </c>
+      <c r="T26">
+        <v>0.0004217024913688131</v>
       </c>
     </row>
   </sheetData>
